--- a/data/trans_camb/P54_A_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_1_R-Estudios-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>67,74</t>
+          <t>81,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>64,89</t>
+          <t>77,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>61,21</t>
+          <t>66,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>64,31</t>
+          <t>65,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>64,36</t>
+          <t>74,05</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>64,7</t>
+          <t>71,14</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>56,57; 79,28</t>
+          <t>65,34; 92,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>52,67; 76,27</t>
+          <t>58,97; 89,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>49,64; 72,95</t>
+          <t>49,79; 79,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>54,02; 73,84</t>
+          <t>48,65; 78,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>55,4; 71,94</t>
+          <t>63,64; 84,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>56,24; 72,23</t>
+          <t>59,87; 81,33</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>246,0%</t>
+          <t>435,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>235,65%</t>
+          <t>413,98%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>194,54%</t>
+          <t>227,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>204,39%</t>
+          <t>221,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>218,01%</t>
+          <t>308,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>219,17%</t>
+          <t>296,27%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>148,99; 441,5</t>
+          <t>183,56; 1158,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>141,02; 423,96</t>
+          <t>162,62; 1090,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>124,71; 325,64</t>
+          <t>112,03; 457,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>134,42; 327,48</t>
+          <t>111,3; 447,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>150,67; 308,36</t>
+          <t>182,49; 577,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>154,83; 318,27</t>
+          <t>179,71; 562,91</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>47,89</t>
+          <t>38,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>53,49</t>
+          <t>47,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>53,76</t>
+          <t>56,93</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>56,2</t>
+          <t>60,19</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>50,91</t>
+          <t>47,99</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>54,85</t>
+          <t>54,19</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>37,64; 55,59</t>
+          <t>22,38; 49,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,35; 60,74</t>
+          <t>38,63; 57,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>46,93; 59,79</t>
+          <t>47,3; 64,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>48,07; 62,38</t>
+          <t>51,53; 66,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>44,96; 56,08</t>
+          <t>37,68; 54,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,62; 59,8</t>
+          <t>48,26; 60,51</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>122,15%</t>
+          <t>82,85%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>136,43%</t>
+          <t>103,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>139,18%</t>
+          <t>152,72%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>145,5%</t>
+          <t>161,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>130,86%</t>
+          <t>114,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>140,99%</t>
+          <t>129,62%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>86,71; 167,01</t>
+          <t>45,85; 125,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>102,28; 180,4</t>
+          <t>70,51; 150,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>105,96; 178,77</t>
+          <t>102,24; 208,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>110,02; 186,85</t>
+          <t>112,89; 215,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>106,88; 160,75</t>
+          <t>83,34; 149,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>116,12; 171,49</t>
+          <t>102,92; 167,2</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>38,53</t>
+          <t>33,77</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>42,96</t>
+          <t>37,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>34,59</t>
+          <t>34,16</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>36,47</t>
+          <t>37,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>36,44</t>
+          <t>34,06</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>39,47</t>
+          <t>37,45</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28,31; 48,0</t>
+          <t>19,73; 45,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31,78; 51,57</t>
+          <t>23,78; 48,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>27,5; 41,84</t>
+          <t>25,34; 43,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,49; 43,29</t>
+          <t>29,4; 45,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,62; 41,97</t>
+          <t>25,99; 41,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>34,19; 44,87</t>
+          <t>29,94; 44,74</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>77,75%</t>
+          <t>64,1%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>86,69%</t>
+          <t>70,45%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>57,64%</t>
+          <t>57,41%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>60,76%</t>
+          <t>63,41%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>66,05%</t>
+          <t>60,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>71,56%</t>
+          <t>66,33%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>51,08; 113,66</t>
+          <t>33,41; 103,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>58,43; 122,43</t>
+          <t>41,54; 112,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>42,2; 78,09</t>
+          <t>38,33; 82,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>44,97; 80,54</t>
+          <t>43,65; 87,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>51,79; 83,0</t>
+          <t>42,57; 81,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>58,0; 89,47</t>
+          <t>48,63; 88,89</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>47,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>51,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>47,69</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>50,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>47,8</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>50,79</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>41,24; 53,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>45,88; 56,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>42,75; 52,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>44,9; 54,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>44,1; 51,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>47,19; 54,1</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>116,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>104,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>109,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>110,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>117,17%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1183,207 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>91,51; 144,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>102,01; 153,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>87,04; 126,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>90,05; 129,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>96,46; 127,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>102,47; 133,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>42,59</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>47,81</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>48,27</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>50,95</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>45,64</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>49,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>32,07; 49,91</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>40,18; 54,54</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>42,96; 54,21</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>45,67; 56,76</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>40,24; 50,83</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>45,11; 54,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>94,29%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>105,84%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>104,94%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>110,78%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>100,07%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>108,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>67,07; 124,86</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>80,11; 138,27</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>84,82; 131,52</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>90,06; 140,55</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>82,02; 121,73</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>91,2; 131,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P54_A_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_1_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,319 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>81,33</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>77,3</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>66,93</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>65,03</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>74,05</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>71,14</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>81.32736563646628</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>74.98401096606891</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>65.16881630478389</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>65.14125961567255</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>73.1367314369226</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>70.10998997861191</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>65,34; 92,41</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>58,97; 89,34</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>49,79; 79,35</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>48,65; 78,3</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>63,64; 84,16</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>59,87; 81,33</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>65.34346393352575</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>54.84673822636292</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>46.00408159207009</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>49.20635333028421</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>62.04411294218956</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>57.93449401155748</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>435,54%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>413,98%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>227,91%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>221,46%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>308,41%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>296,27%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>92.40965320144994</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>88.05899712074108</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>78.64124727258105</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>78.16738463574818</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>83.53163939382399</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>80.59286425177082</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>183,56; 1158,81</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>162,62; 1090,57</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>112,03; 457,6</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>111,3; 447,37</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>182,49; 577,64</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>179,71; 562,91</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>4.355430736398539</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>4.015716770661305</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>2.219188376435052</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>2.218249990752506</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>3.045905028074327</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>2.919851171887156</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>38,55</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>47,99</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>56,93</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>60,19</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>47,99</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>54,19</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>1.835595623929266</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>1.558660920175677</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>1.072372971661159</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>1.123660183329093</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>1.772432174443758</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>1.747838198063961</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>22,38; 49,02</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>38,63; 57,31</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>47,3; 64,82</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>51,53; 66,91</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>37,68; 54,23</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>48,26; 60,51</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>11.5880807910688</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>10.35403658687377</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>4.483270884538713</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>4.519085620108258</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>5.744231638290289</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>5.569832456449372</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>82,85%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>103,13%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>152,72%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>161,47%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>114,78%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>129,62%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>38.05596310447864</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>48.2210894332397</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>56.99368214024037</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>60.21147002207894</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>47.81499618274551</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>54.32130635852515</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>45,85; 125,59</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>70,51; 150,48</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>102,24; 208,27</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>112,89; 215,73</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>83,34; 149,41</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>102,92; 167,2</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>23.37999419988758</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>38.90746507228925</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>47.33076411926092</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>51.8451823032656</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>38.18083118931931</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>48.7102440896354</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>33,77</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>37,11</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>34,16</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>37,73</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>34,06</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>37,45</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>48.64192923765038</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>57.40998994092143</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>64.855927709912</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>66.91085228460545</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>54.32473197233784</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>60.85574979552835</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>19,73; 45,12</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>23,78; 48,5</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>25,34; 43,12</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>29,4; 45,58</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>25,99; 41,43</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>29,94; 44,74</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.8178130384354163</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>1.036259036666521</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>1.528992072608097</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>1.615316941925354</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.143748859090332</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.299381723976373</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>64,1%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>70,45%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>57,41%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>63,41%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>60,33%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>66,33%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.4652585255919748</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.7143650215797231</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>1.025867810140657</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>1.134513903708454</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.8424639158225095</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>1.036295594230884</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>33,41; 103,97</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>41,54; 112,9</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>38,33; 82,01</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>43,65; 87,17</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>42,57; 81,42</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>48,63; 88,89</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>1.244978311024702</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>1.51387748952471</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>2.084554645611569</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>2.158065787557289</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.486084625460185</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.677214393488954</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,325 +928,332 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>34.77804418973138</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>37.32763096265065</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>34.57980618917033</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>37.660802769577</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>34.62094430619436</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>37.49179022021656</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>21.00022300670589</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>23.68394043676723</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>25.93478168442019</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>29.22508353258733</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>26.38263830449317</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>29.8885968071981</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>46.33139527999467</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>48.62788379033081</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>43.51346348166709</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>45.48523966727182</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>42.00294311469081</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>44.91625777712024</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.6601621269593879</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.7085587710517223</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.5811429478940162</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.6329217064386392</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.6132641365760525</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.6641173664918729</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>42,59</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>47,81</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>48,27</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>50,95</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>45,64</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>49,45</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.3575090871510287</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0.4120604906985401</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.3869983664613991</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>0.4350338416649186</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0.4368287657306237</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0.4861897044463265</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>32,07; 49,91</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>40,18; 54,54</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>42,96; 54,21</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>45,67; 56,76</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>40,24; 50,83</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>45,11; 54,28</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>1.068631791023814</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>1.120952190638295</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.8231353562422559</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.8720563407094272</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.8243939178176756</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.8876150372899944</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>94,29%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>105,84%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>104,94%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>110,78%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>100,07%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>108,43%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>42.68289454360202</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>47.70223226990829</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>48.23065053499793</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>50.94015113582063</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>45.62867538629668</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>49.40750431161075</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>67,07; 124,86</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>80,11; 138,27</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>84,82; 131,52</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>90,06; 140,55</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>82,02; 121,73</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>91,2; 131,51</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>33.306584286533</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>39.81756129378592</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>43.00613931402955</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>45.62449851419492</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>40.20335503028288</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>44.95718419446268</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>49.7720034252997</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>54.34134380503804</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>54.1409096511282</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>56.75763026011325</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>50.88519005338825</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>54.07983692196757</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.9449174058021086</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>1.056035914373288</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>1.048542197978754</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>1.10744718233823</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>1.000484748943984</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>1.08334187062542</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0.6779927255067564</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.7886887707926358</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0.8504942227209364</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>0.8999503475992958</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>0.8211504435509066</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>0.9090751923498767</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>1.24918443683361</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>1.378107874634497</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>1.314522834314819</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>1.403635493645278</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>1.221219844324102</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>1.308001322273689</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
